--- a/regions/6/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
+++ b/regions/6/dasaqmeba_umushevroba/dasaqmeba_umushevroba.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="იმერეთი" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -128,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +249,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -287,15 +294,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -384,19 +392,68 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="6"/>
     <cellStyle name="Normal_Sheet2" xfId="4"/>
     <cellStyle name="Normal_Sheet3" xfId="3"/>
     <cellStyle name="Normal_Sheet5" xfId="5"/>
@@ -702,15 +759,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.7109375" style="1" customWidth="1"/>
     <col min="2" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="20" width="8.7109375" customWidth="1"/>
+    <col min="17" max="21" width="8.7109375" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -757,56 +817,56 @@
       <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:23" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
       <c r="V3"/>
       <c r="W3"/>
     </row>
     <row r="4" spans="1:23" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
       <c r="V4"/>
       <c r="W4"/>
     </row>
@@ -814,7 +874,9 @@
       <c r="A5" s="9"/>
       <c r="B5" s="8"/>
       <c r="Q5" s="6"/>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -877,6 +939,12 @@
       <c r="T6" s="15">
         <v>2021</v>
       </c>
+      <c r="U6" s="15">
+        <v>2022</v>
+      </c>
+      <c r="V6" s="15">
+        <v>2023</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15" customHeight="1">
       <c r="A7" s="16" t="s">
@@ -939,6 +1007,12 @@
       <c r="T7" s="17">
         <v>427.51608120946514</v>
       </c>
+      <c r="U7" s="38">
+        <v>429.50406687813773</v>
+      </c>
+      <c r="V7" s="53">
+        <v>413.97815031561737</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -1001,6 +1075,12 @@
       <c r="T8" s="20">
         <v>191.7418994574623</v>
       </c>
+      <c r="U8" s="39">
+        <v>204.82380860175357</v>
+      </c>
+      <c r="V8" s="54">
+        <v>204.27774529202335</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15" customHeight="1">
       <c r="A9" s="22" t="s">
@@ -1063,6 +1143,12 @@
       <c r="T9" s="20">
         <v>147.37093779161117</v>
       </c>
+      <c r="U9" s="39">
+        <v>165.14014123860872</v>
+      </c>
+      <c r="V9" s="54">
+        <v>163.34278932947714</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1">
       <c r="A10" s="24" t="s">
@@ -1125,6 +1211,12 @@
       <c r="T10" s="20">
         <v>101.95730015417313</v>
       </c>
+      <c r="U10" s="39">
+        <v>114.54639648268306</v>
+      </c>
+      <c r="V10" s="54">
+        <v>116.94358909299173</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1">
       <c r="A11" s="24" t="s">
@@ -1187,6 +1279,12 @@
       <c r="T11" s="20">
         <v>45.064351274265086</v>
       </c>
+      <c r="U11" s="39">
+        <v>50.289462031497479</v>
+      </c>
+      <c r="V11" s="54">
+        <v>46.306599444006061</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1">
       <c r="A12" s="24" t="s">
@@ -1249,6 +1347,12 @@
       <c r="T12" s="20">
         <v>0.34928636317293349</v>
       </c>
+      <c r="U12" s="39">
+        <v>0.3042827244281115</v>
+      </c>
+      <c r="V12" s="54">
+        <v>9.2600792479445457E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1">
       <c r="A13" s="22" t="s">
@@ -1311,6 +1415,12 @@
       <c r="T13" s="20">
         <v>44.370961665851191</v>
       </c>
+      <c r="U13" s="39">
+        <v>39.683667363144785</v>
+      </c>
+      <c r="V13" s="54">
+        <v>40.934955962546098</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1">
       <c r="A14" s="25" t="s">
@@ -1373,6 +1483,12 @@
       <c r="T14" s="20">
         <v>235.77418175200285</v>
       </c>
+      <c r="U14" s="39">
+        <v>224.68025827638661</v>
+      </c>
+      <c r="V14" s="54">
+        <v>209.70040502359444</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15" customHeight="1">
       <c r="A15" s="26" t="s">
@@ -1435,6 +1551,12 @@
       <c r="T15" s="27">
         <v>23.140983682439646</v>
       </c>
+      <c r="U15" s="40">
+        <v>19.374538357649229</v>
+      </c>
+      <c r="V15" s="55">
+        <v>20.038872028878092</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15" customHeight="1">
       <c r="A16" s="30" t="s">
@@ -1497,8 +1619,14 @@
       <c r="T16" s="27">
         <v>44.850219181232795</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="15" customHeight="1" thickBot="1">
+      <c r="U16" s="40">
+        <v>47.688444510088374</v>
+      </c>
+      <c r="V16" s="55">
+        <v>49.345054838348787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="15" customHeight="1" thickBot="1">
       <c r="A17" s="31" t="s">
         <v>18</v>
       </c>
@@ -1559,8 +1687,14 @@
       <c r="T17" s="32">
         <v>34.471437278965304</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="15" customHeight="1">
+      <c r="U17" s="41">
+        <v>38.449028536315019</v>
+      </c>
+      <c r="V17" s="56">
+        <v>39.456862446712329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="15" customHeight="1">
       <c r="A18" s="5"/>
       <c r="B18" s="4"/>
       <c r="L18"/>
@@ -1576,85 +1710,92 @@
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="1:23" ht="34.5" customHeight="1">
-      <c r="A19" s="39" t="s">
+    <row r="19" spans="1:26" s="44" customFormat="1" ht="90" customHeight="1">
+      <c r="A19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:23" ht="15" customHeight="1">
-      <c r="A20" s="40" t="s">
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+      <c r="W19" s="43"/>
+      <c r="X19" s="42"/>
+      <c r="Z19" s="45"/>
+    </row>
+    <row r="20" spans="1:26" ht="45" customHeight="1">
+      <c r="A20" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="1"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
     </row>
-    <row r="21" spans="1:23" ht="15" customHeight="1">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:26" s="50" customFormat="1" ht="45" customHeight="1">
+      <c r="A21" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="40"/>
-      <c r="T21" s="40"/>
-    </row>
-    <row r="22" spans="1:23" ht="15" customHeight="1">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="49"/>
+      <c r="X21" s="48"/>
+      <c r="Z21"/>
+    </row>
+    <row r="22" spans="1:26" ht="15" customHeight="1">
       <c r="A22" s="3"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1664,7 +1805,7 @@
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
     </row>
-    <row r="23" spans="1:23" ht="15" customHeight="1">
+    <row r="23" spans="1:26" ht="15" customHeight="1">
       <c r="A23" s="3"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1674,7 +1815,7 @@
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
     </row>
-    <row r="24" spans="1:23" ht="15" customHeight="1">
+    <row r="24" spans="1:26" ht="15" customHeight="1">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -1692,7 +1833,7 @@
       <c r="O24"/>
       <c r="P24"/>
     </row>
-    <row r="25" spans="1:23" ht="15" customHeight="1">
+    <row r="25" spans="1:26" ht="15" customHeight="1">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -1710,7 +1851,7 @@
       <c r="O25"/>
       <c r="P25"/>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:26">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -1728,7 +1869,7 @@
       <c r="O26"/>
       <c r="P26"/>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:26">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -1746,7 +1887,7 @@
       <c r="O27"/>
       <c r="P27"/>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:26">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -1764,7 +1905,7 @@
       <c r="O28"/>
       <c r="P28"/>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:26">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -1783,13 +1924,6 @@
       <c r="P29"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A19:T19"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.43307086614173229" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
